--- a/testdata/test1.xlsx
+++ b/testdata/test1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20160" windowHeight="12270"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,8 +15,71 @@
 </workbook>
 </file>
 
+<file path=xl/cellimages.xml><?xml version="1.0" encoding="utf-8"?>
+<etc:cellImages xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="ID_2B823888587D4D31B1860CC2F6CD8379"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="537210"/>
+          <a:ext cx="2324100" cy="1066800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="ID_5F949A1665294850BE2EDCE119097D6B"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2100580" y="19050"/>
+          <a:ext cx="894080" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+</etc:cellImages>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>姓名</t>
   </si>
@@ -33,6 +96,9 @@
     <t>birth1</t>
   </si>
   <si>
+    <t>图片</t>
+  </si>
+  <si>
     <t>张三</t>
   </si>
   <si>
@@ -44,18 +110,21 @@
   <si>
     <t>否</t>
   </si>
+  <si>
+    <t>王五</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,74 +141,52 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,6 +234,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -194,22 +249,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,19 +286,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -248,163 +466,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,15 +491,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,6 +560,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -520,148 +582,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1020,19 +1082,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
     <col min="3" max="3" width="9.375"/>
     <col min="5" max="5" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1048,10 +1110,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" ht="26" spans="1:6">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>4</v>
@@ -1060,15 +1125,19 @@
         <v>43224</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1">
         <v>43224</v>
       </c>
+      <c r="F2" t="str">
+        <f>_xlfn.DISPIMG("ID_2B823888587D4D31B1860CC2F6CD8379",1)</f>
+        <v>=DISPIMG("ID_2B823888587D4D31B1860CC2F6CD8379",1)</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" ht="31.45" spans="1:6">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -1077,10 +1146,31 @@
         <v>42955</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" s="1">
         <v>42955</v>
+      </c>
+      <c r="F3" t="str">
+        <f>_xlfn.DISPIMG("ID_5F949A1665294850BE2EDCE119097D6B",1)</f>
+        <v>=DISPIMG("ID_5F949A1665294850BE2EDCE119097D6B",1)</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1">
+        <v>42621</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1">
+        <v>42621</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/test1.xlsx
+++ b/testdata/test1.xlsx
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>姓名</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>birth1</t>
+  </si>
+  <si>
+    <t>图片2</t>
   </si>
   <si>
     <t>图片</t>
@@ -793,6 +796,179 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2344420</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1409700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4257675" y="342900"/>
+          <a:ext cx="2211070" cy="1238250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2171700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1491615</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4305300" y="2076450"/>
+          <a:ext cx="1990725" cy="1377315"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>933450</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4210050" y="6254750"/>
+          <a:ext cx="7105650" cy="4514850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>372110</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>2005965</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3381375</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>3400425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4496435" y="3968115"/>
+          <a:ext cx="3009265" cy="1394460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1082,19 +1258,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
   <cols>
     <col min="3" max="3" width="9.375"/>
     <col min="5" max="5" width="17.75" customWidth="1"/>
+    <col min="6" max="6" width="82.125" customWidth="1"/>
+    <col min="7" max="7" width="50.75"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1113,10 +1291,13 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" ht="26" spans="1:6">
+    <row r="2" ht="141" customHeight="1" spans="1:7">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>4</v>
@@ -1125,19 +1306,19 @@
         <v>43224</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1">
         <v>43224</v>
       </c>
-      <c r="F2" t="str">
+      <c r="G2" t="str">
         <f>_xlfn.DISPIMG("ID_2B823888587D4D31B1860CC2F6CD8379",1)</f>
         <v>=DISPIMG("ID_2B823888587D4D31B1860CC2F6CD8379",1)</v>
       </c>
     </row>
-    <row r="3" ht="31.45" spans="1:6">
+    <row r="3" ht="335" customHeight="1" spans="1:7">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -1146,19 +1327,19 @@
         <v>42955</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1">
         <v>42955</v>
       </c>
-      <c r="F3" t="str">
+      <c r="G3" t="str">
         <f>_xlfn.DISPIMG("ID_5F949A1665294850BE2EDCE119097D6B",1)</f>
         <v>=DISPIMG("ID_5F949A1665294850BE2EDCE119097D6B",1)</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>6</v>
@@ -1167,7 +1348,7 @@
         <v>42621</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="1">
         <v>42621</v>
@@ -1177,6 +1358,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/testdata/test1.xlsx
+++ b/testdata/test1.xlsx
@@ -1261,7 +1261,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
@@ -1342,7 +1342,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>999</v>
       </c>
       <c r="C4" s="1">
         <v>42621</v>

--- a/testdata/test1.xlsx
+++ b/testdata/test1.xlsx
@@ -892,10 +892,10 @@
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>933450</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>5812790</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>3677285</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -913,7 +913,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4210050" y="6254750"/>
-          <a:ext cx="7105650" cy="4514850"/>
+          <a:ext cx="5727065" cy="3639185"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1261,7 +1261,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
@@ -1337,7 +1337,7 @@
         <v>=DISPIMG("ID_5F949A1665294850BE2EDCE119097D6B",1)</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" ht="375" customHeight="1" spans="1:5">
       <c r="A4" t="s">
         <v>11</v>
       </c>

--- a/testdata/test1.xlsx
+++ b/testdata/test1.xlsx
@@ -1260,8 +1260,8 @@
   <sheetPr/>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>

--- a/testdata/test1.xlsx
+++ b/testdata/test1.xlsx
@@ -4,14 +4,27 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -79,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>姓名</t>
   </si>
@@ -88,6 +101,9 @@
   </si>
   <si>
     <t>birth</t>
+  </si>
+  <si>
+    <t>time</t>
   </si>
   <si>
     <t>agree</t>
@@ -120,7 +136,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -136,55 +152,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -229,6 +209,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -274,7 +269,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,49 +305,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,121 +443,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,21 +496,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -527,6 +528,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,207 +601,210 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -802,13 +821,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>2344420</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>1409700</xdr:rowOff>
@@ -828,7 +847,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4257675" y="342900"/>
+          <a:off x="4972050" y="342900"/>
           <a:ext cx="2211070" cy="1238250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -844,13 +863,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>2171700</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>1491615</xdr:rowOff>
@@ -870,7 +889,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4305300" y="2076450"/>
+          <a:off x="5019675" y="2076450"/>
           <a:ext cx="1990725" cy="1377315"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -886,13 +905,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>5812790</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>3677285</xdr:rowOff>
@@ -912,7 +931,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4210050" y="6254750"/>
+          <a:off x="4924425" y="6254750"/>
           <a:ext cx="5727065" cy="3639185"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -928,13 +947,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>372110</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>2005965</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>3381375</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>3400425</xdr:rowOff>
@@ -954,7 +973,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4496435" y="3968115"/>
+          <a:off x="5210810" y="3968115"/>
           <a:ext cx="3009265" cy="1394460"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1258,21 +1277,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
   <cols>
-    <col min="3" max="3" width="9.375"/>
-    <col min="5" max="5" width="17.75" customWidth="1"/>
-    <col min="6" max="6" width="82.125" customWidth="1"/>
-    <col min="7" max="7" width="50.75"/>
+    <col min="3" max="4" width="9.375"/>
+    <col min="6" max="6" width="17.75" customWidth="1"/>
+    <col min="7" max="7" width="82.125" customWidth="1"/>
+    <col min="8" max="8" width="50.75"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1294,10 +1313,13 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" ht="141" customHeight="1" spans="1:7">
+    <row r="2" ht="141" customHeight="1" spans="1:8">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>4</v>
@@ -1305,20 +1327,23 @@
       <c r="C2" s="1">
         <v>43224</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="D2" s="2">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1">
         <v>43224</v>
       </c>
-      <c r="G2" t="str">
+      <c r="H2" t="str">
         <f>_xlfn.DISPIMG("ID_2B823888587D4D31B1860CC2F6CD8379",1)</f>
         <v>=DISPIMG("ID_2B823888587D4D31B1860CC2F6CD8379",1)</v>
       </c>
     </row>
-    <row r="3" ht="335" customHeight="1" spans="1:7">
+    <row r="3" ht="335" customHeight="1" spans="1:8">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -1326,20 +1351,21 @@
       <c r="C3" s="1">
         <v>42955</v>
       </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="D3" s="2"/>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1">
         <v>42955</v>
       </c>
-      <c r="G3" t="str">
+      <c r="H3" t="str">
         <f>_xlfn.DISPIMG("ID_5F949A1665294850BE2EDCE119097D6B",1)</f>
         <v>=DISPIMG("ID_5F949A1665294850BE2EDCE119097D6B",1)</v>
       </c>
     </row>
-    <row r="4" ht="375" customHeight="1" spans="1:5">
+    <row r="4" ht="375" customHeight="1" spans="1:6">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>999</v>
@@ -1347,10 +1373,13 @@
       <c r="C4" s="1">
         <v>42621</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="D4" s="2">
+        <v>0.999305555555556</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1">
         <v>42621</v>
       </c>
     </row>
